--- a/LF/TAS/STP/2024/st_lf_tas2_2412_1_sites.xlsx
+++ b/LF/TAS/STP/2024/st_lf_tas2_2412_1_sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\STP\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E277016-D232-4057-8E22-015C1D569DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58E502D-250B-41F6-B4DD-2EA7F7F6D383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="263">
   <si>
     <t>type</t>
   </si>
@@ -686,6 +686,147 @@
   </si>
   <si>
     <t>(2024 Dez) 1. TAS2 FL - Site formulário</t>
+  </si>
+  <si>
+    <t>PRINCIPE</t>
+  </si>
+  <si>
+    <t>ABADE</t>
+  </si>
+  <si>
+    <t>AEROPORTO</t>
+  </si>
+  <si>
+    <t>ÁGUA DOUTOR</t>
+  </si>
+  <si>
+    <t>ÁGUA ESCADA</t>
+  </si>
+  <si>
+    <t>ÁGUA NAMORO + SAO JOAO</t>
+  </si>
+  <si>
+    <t>AZEITONA</t>
+  </si>
+  <si>
+    <t>BARACÃO</t>
+  </si>
+  <si>
+    <t>BELA VISTA</t>
+  </si>
+  <si>
+    <t>BELO MONTE</t>
+  </si>
+  <si>
+    <t>BUDO BUDO (P.REAL)</t>
+  </si>
+  <si>
+    <t>CAMINHO S.MATEUS</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>CHIMALO</t>
+  </si>
+  <si>
+    <t>ESTALEIRO +QUINTAL STO ANTONIO</t>
+  </si>
+  <si>
+    <t>HOSPITAL VELHO</t>
+  </si>
+  <si>
+    <t>LENTAPIA</t>
+  </si>
+  <si>
+    <t>MONTA ALEGRE (PRINCIPE)</t>
+  </si>
+  <si>
+    <t>NOVA ESTRELA</t>
+  </si>
+  <si>
+    <t>OQUE DANIEL</t>
+  </si>
+  <si>
+    <t>OQUE GASPAR</t>
+  </si>
+  <si>
+    <t>OQUE PONTE</t>
+  </si>
+  <si>
+    <t>P. STO ANTONIO</t>
+  </si>
+  <si>
+    <t>PACIENCIA</t>
+  </si>
+  <si>
+    <t>PICÃO</t>
+  </si>
+  <si>
+    <t>PINQUETE</t>
+  </si>
+  <si>
+    <t>PONTA DO SOL</t>
+  </si>
+  <si>
+    <t>PONTA FORTE</t>
+  </si>
+  <si>
+    <t>PORTINHO</t>
+  </si>
+  <si>
+    <t>PORTO REAL</t>
+  </si>
+  <si>
+    <t>PRAIA COMPAINHA</t>
+  </si>
+  <si>
+    <t>PRAIA DA LAPA</t>
+  </si>
+  <si>
+    <t>PRAIA DAS BURRAS</t>
+  </si>
+  <si>
+    <t>PRAIA INHAME</t>
+  </si>
+  <si>
+    <t>PRAIA MARGARIDA</t>
+  </si>
+  <si>
+    <t>PRAIA SECA</t>
+  </si>
+  <si>
+    <t>RUA FELIZ</t>
+  </si>
+  <si>
+    <t>SANTA RITA</t>
+  </si>
+  <si>
+    <t>SANTO ANTONIO II</t>
+  </si>
+  <si>
+    <t>SANTO CRISTO</t>
+  </si>
+  <si>
+    <t>SÃO JOAQUIM</t>
+  </si>
+  <si>
+    <t>SÃO MATEUS</t>
+  </si>
+  <si>
+    <t>SUNDY</t>
+  </si>
+  <si>
+    <t>TCHADA</t>
+  </si>
+  <si>
+    <t>TERREIRO VELHO</t>
+  </si>
+  <si>
+    <t>TRABALHADORES</t>
+  </si>
+  <si>
+    <t>UBA CAJU</t>
   </si>
 </sst>
 </file>
@@ -814,7 +955,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,9 +983,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1165,383 +1303,383 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:E4"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22" style="17" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="17" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="41.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="47.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="47.375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="17" customWidth="1"/>
-    <col min="9" max="10" width="29.5" style="17" customWidth="1"/>
-    <col min="11" max="11" width="20.375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="17" customWidth="1"/>
-    <col min="14" max="14" width="35.375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="17" customWidth="1"/>
-    <col min="16" max="16" width="36.625" style="17" customWidth="1"/>
-    <col min="17" max="20" width="18" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11" style="17"/>
+    <col min="1" max="1" width="22" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="47.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="47.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="16" customWidth="1"/>
+    <col min="9" max="10" width="29.5" style="16" customWidth="1"/>
+    <col min="11" max="11" width="20.375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="16" customWidth="1"/>
+    <col min="14" max="14" width="35.375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="36.625" style="16" customWidth="1"/>
+    <col min="17" max="20" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" ht="37.5">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:20" s="24" customFormat="1" ht="37.5">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="25" customFormat="1" ht="63">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:20" s="24" customFormat="1" ht="63">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:20" s="25" customFormat="1">
-      <c r="A3" s="19" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:20" s="24" customFormat="1">
+      <c r="A3" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="25" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="25" customFormat="1">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:20" s="24" customFormat="1">
+      <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="25" customFormat="1">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:20" s="24" customFormat="1">
+      <c r="A5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" ht="31.5">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:20" s="24" customFormat="1" ht="31.5">
+      <c r="A6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="25" customFormat="1" ht="31.5">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:20" s="24" customFormat="1" ht="31.5">
+      <c r="A7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" s="25" customFormat="1">
-      <c r="A8" s="19" t="s">
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" s="24" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:20" s="25" customFormat="1">
-      <c r="A9" s="19" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" s="24" customFormat="1">
+      <c r="A9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="1:20" s="25" customFormat="1">
-      <c r="A10" s="19" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" s="24" customFormat="1">
+      <c r="A10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1552,11 +1690,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:G350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD256"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1606,7 +1744,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
@@ -1622,7 +1760,7 @@
         <v>67</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="9"/>
@@ -1692,44 +1830,42 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1737,16 +1873,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1754,13 +1890,13 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>81</v>
@@ -1771,16 +1907,16 @@
         <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1788,70 +1924,70 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
+      <c r="A16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>61</v>
+      <c r="A17" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
+        <v>216</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
+      <c r="A18" s="9"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1859,16 +1995,16 @@
         <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1876,16 +2012,16 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1893,16 +2029,16 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1910,16 +2046,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1927,16 +2063,16 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1944,16 +2080,16 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1961,16 +2097,16 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1978,16 +2114,16 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1995,16 +2131,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2012,16 +2148,16 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2029,16 +2165,16 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2046,16 +2182,16 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2063,16 +2199,16 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2080,16 +2216,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2097,16 +2233,16 @@
         <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2114,16 +2250,16 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2131,16 +2267,16 @@
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2148,16 +2284,16 @@
         <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2165,16 +2301,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2182,16 +2318,16 @@
         <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2199,16 +2335,16 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2216,16 +2352,16 @@
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2233,16 +2369,16 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2250,16 +2386,16 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2267,16 +2403,16 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2284,16 +2420,16 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2301,16 +2437,16 @@
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2318,13 +2454,13 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
         <v>79</v>
@@ -2335,13 +2471,13 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
         <v>79</v>
@@ -2352,16 +2488,16 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2369,16 +2505,16 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2386,16 +2522,16 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2403,16 +2539,16 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2420,16 +2556,16 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2437,16 +2573,16 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2454,16 +2590,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2471,16 +2607,16 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2488,16 +2624,16 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2505,16 +2641,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2522,16 +2658,16 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2539,16 +2675,16 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2556,16 +2692,16 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2573,16 +2709,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2590,16 +2726,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2607,16 +2743,16 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2624,16 +2760,16 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2641,16 +2777,16 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2658,16 +2794,16 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2675,16 +2811,16 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2692,16 +2828,16 @@
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2709,16 +2845,16 @@
         <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2726,16 +2862,16 @@
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2743,16 +2879,16 @@
         <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2760,16 +2896,16 @@
         <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2777,16 +2913,16 @@
         <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2794,16 +2930,16 @@
         <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2811,16 +2947,16 @@
         <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2828,16 +2964,16 @@
         <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="D77" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2845,16 +2981,16 @@
         <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2862,13 +2998,13 @@
         <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
         <v>83</v>
@@ -2879,13 +3015,13 @@
         <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
         <v>83</v>
@@ -2896,13 +3032,13 @@
         <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
         <v>83</v>
@@ -2913,13 +3049,13 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F82" t="s">
         <v>83</v>
@@ -2930,13 +3066,13 @@
         <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
         <v>83</v>
@@ -2947,13 +3083,13 @@
         <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
         <v>83</v>
@@ -2964,13 +3100,13 @@
         <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
         <v>83</v>
@@ -2981,16 +3117,16 @@
         <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2998,16 +3134,16 @@
         <v>61</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3015,13 +3151,13 @@
         <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F88" t="s">
         <v>84</v>
@@ -3032,13 +3168,13 @@
         <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
         <v>84</v>
@@ -3049,13 +3185,13 @@
         <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F90" t="s">
         <v>84</v>
@@ -3083,13 +3219,13 @@
         <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F92" t="s">
         <v>84</v>
@@ -3100,13 +3236,13 @@
         <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F93" t="s">
         <v>84</v>
@@ -3117,13 +3253,13 @@
         <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F94" t="s">
         <v>84</v>
@@ -3134,13 +3270,13 @@
         <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F95" t="s">
         <v>84</v>
@@ -3151,13 +3287,13 @@
         <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F96" t="s">
         <v>84</v>
@@ -3168,13 +3304,13 @@
         <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F97" t="s">
         <v>84</v>
@@ -3185,13 +3321,13 @@
         <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F98" t="s">
         <v>84</v>
@@ -3202,13 +3338,13 @@
         <v>61</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F99" t="s">
         <v>84</v>
@@ -3219,13 +3355,13 @@
         <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F100" t="s">
         <v>84</v>
@@ -3236,13 +3372,13 @@
         <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F101" t="s">
         <v>84</v>
@@ -3253,13 +3389,13 @@
         <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F102" t="s">
         <v>84</v>
@@ -3270,13 +3406,13 @@
         <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F103" t="s">
         <v>84</v>
@@ -3287,13 +3423,13 @@
         <v>61</v>
       </c>
       <c r="B104" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C104" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D104" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F104" t="s">
         <v>84</v>
@@ -3304,13 +3440,13 @@
         <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F105" t="s">
         <v>84</v>
@@ -3321,16 +3457,16 @@
         <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F106" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3338,16 +3474,16 @@
         <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D107" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F107" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3355,16 +3491,16 @@
         <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="F108" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3372,16 +3508,16 @@
         <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="D109" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="F109" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3389,16 +3525,16 @@
         <v>61</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="D110" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="F110" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3406,16 +3542,16 @@
         <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="F111" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3423,16 +3559,16 @@
         <v>61</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="D112" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3440,16 +3576,16 @@
         <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="F113" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3457,16 +3593,16 @@
         <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="D114" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="F114" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3474,16 +3610,16 @@
         <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="F115" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3491,16 +3627,16 @@
         <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="D116" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="F116" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3508,16 +3644,16 @@
         <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="F117" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3525,16 +3661,16 @@
         <v>61</v>
       </c>
       <c r="B118" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="F118" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3542,16 +3678,16 @@
         <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="D119" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="F119" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3559,16 +3695,16 @@
         <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="C120" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="D120" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="F120" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3576,16 +3712,16 @@
         <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="C121" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="D121" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="F121" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3593,16 +3729,16 @@
         <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="C122" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="D122" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="F122" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3610,16 +3746,16 @@
         <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="C123" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D123" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="F123" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3627,16 +3763,16 @@
         <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="D124" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="F124" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3644,16 +3780,16 @@
         <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="C125" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="D125" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="F125" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3661,16 +3797,16 @@
         <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="C126" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="D126" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="F126" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3678,16 +3814,16 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="C127" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="D127" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="F127" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3695,951 +3831,951 @@
         <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="C128" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="D128" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="F128" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="C129" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="D129" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="F129" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="C130" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="D130" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="F130" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>61</v>
       </c>
       <c r="B131" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="C131" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="D131" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="F131" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>61</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="C132" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="D132" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="F132" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>61</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="C133" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="D133" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="F133" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>61</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D134" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="F134" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>61</v>
       </c>
       <c r="B135" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="D135" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="F135" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>61</v>
+      </c>
+      <c r="B136" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" t="s">
+        <v>106</v>
+      </c>
+      <c r="D136" t="s">
+        <v>106</v>
+      </c>
+      <c r="F136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>68</v>
-      </c>
-      <c r="B137">
-        <v>101</v>
-      </c>
-      <c r="C137">
-        <v>101</v>
-      </c>
-      <c r="D137">
-        <v>101</v>
-      </c>
-      <c r="G137" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B137" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" t="s">
+        <v>107</v>
+      </c>
+      <c r="D137" t="s">
+        <v>107</v>
+      </c>
+      <c r="F137" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>68</v>
-      </c>
-      <c r="B138">
-        <v>102</v>
-      </c>
-      <c r="C138">
-        <v>102</v>
-      </c>
-      <c r="D138">
-        <v>102</v>
-      </c>
-      <c r="G138" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B138" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" t="s">
+        <v>217</v>
+      </c>
+      <c r="D138" t="s">
+        <v>217</v>
+      </c>
+      <c r="F138" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>68</v>
-      </c>
-      <c r="B139">
-        <v>103</v>
-      </c>
-      <c r="C139">
-        <v>103</v>
-      </c>
-      <c r="D139">
-        <v>103</v>
-      </c>
-      <c r="G139" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B139" t="s">
+        <v>218</v>
+      </c>
+      <c r="C139" t="s">
+        <v>218</v>
+      </c>
+      <c r="D139" t="s">
+        <v>218</v>
+      </c>
+      <c r="F139" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>68</v>
-      </c>
-      <c r="B140">
-        <v>104</v>
-      </c>
-      <c r="C140">
-        <v>104</v>
-      </c>
-      <c r="D140">
-        <v>104</v>
-      </c>
-      <c r="G140" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B140" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" t="s">
+        <v>219</v>
+      </c>
+      <c r="D140" t="s">
+        <v>219</v>
+      </c>
+      <c r="F140" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>68</v>
-      </c>
-      <c r="B141">
-        <v>105</v>
-      </c>
-      <c r="C141">
-        <v>105</v>
-      </c>
-      <c r="D141">
-        <v>105</v>
-      </c>
-      <c r="G141" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B141" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" t="s">
+        <v>220</v>
+      </c>
+      <c r="D141" t="s">
+        <v>220</v>
+      </c>
+      <c r="F141" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>68</v>
-      </c>
-      <c r="B142">
-        <v>106</v>
-      </c>
-      <c r="C142">
-        <v>106</v>
-      </c>
-      <c r="D142">
-        <v>106</v>
-      </c>
-      <c r="G142" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B142" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" t="s">
+        <v>221</v>
+      </c>
+      <c r="F142" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>68</v>
-      </c>
-      <c r="B143">
-        <v>107</v>
-      </c>
-      <c r="C143">
-        <v>107</v>
-      </c>
-      <c r="D143">
-        <v>107</v>
-      </c>
-      <c r="G143" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B143" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" t="s">
+        <v>222</v>
+      </c>
+      <c r="D143" t="s">
+        <v>222</v>
+      </c>
+      <c r="F143" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>68</v>
-      </c>
-      <c r="B144">
-        <v>108</v>
-      </c>
-      <c r="C144">
-        <v>108</v>
-      </c>
-      <c r="D144">
-        <v>108</v>
-      </c>
-      <c r="G144" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B144" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" t="s">
+        <v>223</v>
+      </c>
+      <c r="D144" t="s">
+        <v>223</v>
+      </c>
+      <c r="F144" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>68</v>
-      </c>
-      <c r="B145">
-        <v>109</v>
-      </c>
-      <c r="C145">
-        <v>109</v>
-      </c>
-      <c r="D145">
-        <v>109</v>
-      </c>
-      <c r="G145" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B145" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" t="s">
+        <v>224</v>
+      </c>
+      <c r="D145" t="s">
+        <v>224</v>
+      </c>
+      <c r="F145" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>68</v>
-      </c>
-      <c r="B146">
-        <v>110</v>
-      </c>
-      <c r="C146">
-        <v>110</v>
-      </c>
-      <c r="D146">
-        <v>110</v>
-      </c>
-      <c r="G146" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B146" t="s">
+        <v>225</v>
+      </c>
+      <c r="C146" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" t="s">
+        <v>225</v>
+      </c>
+      <c r="F146" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>68</v>
-      </c>
-      <c r="B147">
-        <v>111</v>
-      </c>
-      <c r="C147">
-        <v>111</v>
-      </c>
-      <c r="D147">
-        <v>111</v>
-      </c>
-      <c r="G147" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B147" t="s">
+        <v>226</v>
+      </c>
+      <c r="C147" t="s">
+        <v>226</v>
+      </c>
+      <c r="D147" t="s">
+        <v>226</v>
+      </c>
+      <c r="F147" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>68</v>
-      </c>
-      <c r="B148">
-        <v>112</v>
-      </c>
-      <c r="C148">
-        <v>112</v>
-      </c>
-      <c r="D148">
-        <v>112</v>
-      </c>
-      <c r="G148" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B148" t="s">
+        <v>227</v>
+      </c>
+      <c r="C148" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" t="s">
+        <v>227</v>
+      </c>
+      <c r="F148" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>68</v>
-      </c>
-      <c r="B149">
-        <v>113</v>
-      </c>
-      <c r="C149">
-        <v>113</v>
-      </c>
-      <c r="D149">
-        <v>113</v>
-      </c>
-      <c r="G149" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B149" t="s">
+        <v>228</v>
+      </c>
+      <c r="C149" t="s">
+        <v>228</v>
+      </c>
+      <c r="D149" t="s">
+        <v>228</v>
+      </c>
+      <c r="F149" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>68</v>
-      </c>
-      <c r="B150">
-        <v>114</v>
-      </c>
-      <c r="C150">
-        <v>114</v>
-      </c>
-      <c r="D150">
-        <v>114</v>
-      </c>
-      <c r="G150" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B150" t="s">
+        <v>229</v>
+      </c>
+      <c r="C150" t="s">
+        <v>229</v>
+      </c>
+      <c r="D150" t="s">
+        <v>229</v>
+      </c>
+      <c r="F150" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>68</v>
-      </c>
-      <c r="B151">
-        <v>115</v>
-      </c>
-      <c r="C151">
-        <v>115</v>
-      </c>
-      <c r="D151">
-        <v>115</v>
-      </c>
-      <c r="G151" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B151" t="s">
+        <v>230</v>
+      </c>
+      <c r="C151" t="s">
+        <v>230</v>
+      </c>
+      <c r="D151" t="s">
+        <v>230</v>
+      </c>
+      <c r="F151" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>68</v>
-      </c>
-      <c r="B152">
-        <v>116</v>
-      </c>
-      <c r="C152">
-        <v>116</v>
-      </c>
-      <c r="D152">
-        <v>116</v>
-      </c>
-      <c r="G152" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B152" t="s">
+        <v>231</v>
+      </c>
+      <c r="C152" t="s">
+        <v>231</v>
+      </c>
+      <c r="D152" t="s">
+        <v>231</v>
+      </c>
+      <c r="F152" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>68</v>
-      </c>
-      <c r="B153">
-        <v>117</v>
-      </c>
-      <c r="C153">
-        <v>117</v>
-      </c>
-      <c r="D153">
-        <v>117</v>
-      </c>
-      <c r="G153" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B153" t="s">
+        <v>232</v>
+      </c>
+      <c r="C153" t="s">
+        <v>232</v>
+      </c>
+      <c r="D153" t="s">
+        <v>232</v>
+      </c>
+      <c r="F153" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>68</v>
-      </c>
-      <c r="B154">
-        <v>118</v>
-      </c>
-      <c r="C154">
-        <v>118</v>
-      </c>
-      <c r="D154">
-        <v>118</v>
-      </c>
-      <c r="G154" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B154" t="s">
+        <v>233</v>
+      </c>
+      <c r="C154" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" t="s">
+        <v>233</v>
+      </c>
+      <c r="F154" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>68</v>
-      </c>
-      <c r="B155">
-        <v>119</v>
-      </c>
-      <c r="C155">
-        <v>119</v>
-      </c>
-      <c r="D155">
-        <v>119</v>
-      </c>
-      <c r="G155" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B155" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" t="s">
+        <v>234</v>
+      </c>
+      <c r="D155" t="s">
+        <v>234</v>
+      </c>
+      <c r="F155" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>68</v>
-      </c>
-      <c r="B156">
-        <v>120</v>
-      </c>
-      <c r="C156">
-        <v>120</v>
-      </c>
-      <c r="D156">
-        <v>120</v>
-      </c>
-      <c r="G156" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B156" t="s">
+        <v>235</v>
+      </c>
+      <c r="C156" t="s">
+        <v>235</v>
+      </c>
+      <c r="D156" t="s">
+        <v>235</v>
+      </c>
+      <c r="F156" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>68</v>
-      </c>
-      <c r="B157">
-        <v>121</v>
-      </c>
-      <c r="C157">
-        <v>121</v>
-      </c>
-      <c r="D157">
-        <v>121</v>
-      </c>
-      <c r="G157" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B157" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" t="s">
+        <v>236</v>
+      </c>
+      <c r="D157" t="s">
+        <v>236</v>
+      </c>
+      <c r="F157" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>68</v>
-      </c>
-      <c r="B158">
-        <v>122</v>
-      </c>
-      <c r="C158">
-        <v>122</v>
-      </c>
-      <c r="D158">
-        <v>122</v>
-      </c>
-      <c r="G158" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B158" t="s">
+        <v>237</v>
+      </c>
+      <c r="C158" t="s">
+        <v>237</v>
+      </c>
+      <c r="D158" t="s">
+        <v>237</v>
+      </c>
+      <c r="F158" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>68</v>
-      </c>
-      <c r="B159">
-        <v>123</v>
-      </c>
-      <c r="C159">
-        <v>123</v>
-      </c>
-      <c r="D159">
-        <v>123</v>
-      </c>
-      <c r="G159" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B159" t="s">
+        <v>238</v>
+      </c>
+      <c r="C159" t="s">
+        <v>238</v>
+      </c>
+      <c r="D159" t="s">
+        <v>238</v>
+      </c>
+      <c r="F159" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>68</v>
-      </c>
-      <c r="B160">
-        <v>124</v>
-      </c>
-      <c r="C160">
-        <v>124</v>
-      </c>
-      <c r="D160">
-        <v>124</v>
-      </c>
-      <c r="G160" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B160" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" t="s">
+        <v>239</v>
+      </c>
+      <c r="D160" t="s">
+        <v>239</v>
+      </c>
+      <c r="F160" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>68</v>
-      </c>
-      <c r="B161">
-        <v>125</v>
-      </c>
-      <c r="C161">
-        <v>125</v>
-      </c>
-      <c r="D161">
-        <v>125</v>
-      </c>
-      <c r="G161" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B161" t="s">
+        <v>240</v>
+      </c>
+      <c r="C161" t="s">
+        <v>240</v>
+      </c>
+      <c r="D161" t="s">
+        <v>240</v>
+      </c>
+      <c r="F161" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>68</v>
-      </c>
-      <c r="B162">
-        <v>126</v>
-      </c>
-      <c r="C162">
-        <v>126</v>
-      </c>
-      <c r="D162">
-        <v>126</v>
-      </c>
-      <c r="G162" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B162" t="s">
+        <v>241</v>
+      </c>
+      <c r="C162" t="s">
+        <v>241</v>
+      </c>
+      <c r="D162" t="s">
+        <v>241</v>
+      </c>
+      <c r="F162" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>68</v>
-      </c>
-      <c r="B163">
-        <v>127</v>
-      </c>
-      <c r="C163">
-        <v>127</v>
-      </c>
-      <c r="D163">
-        <v>127</v>
-      </c>
-      <c r="G163" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B163" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" t="s">
+        <v>242</v>
+      </c>
+      <c r="D163" t="s">
+        <v>242</v>
+      </c>
+      <c r="F163" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>68</v>
-      </c>
-      <c r="B164">
-        <v>128</v>
-      </c>
-      <c r="C164">
-        <v>128</v>
-      </c>
-      <c r="D164">
-        <v>128</v>
-      </c>
-      <c r="G164" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B164" t="s">
+        <v>243</v>
+      </c>
+      <c r="C164" t="s">
+        <v>243</v>
+      </c>
+      <c r="D164" t="s">
+        <v>243</v>
+      </c>
+      <c r="F164" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>68</v>
-      </c>
-      <c r="B165">
-        <v>129</v>
-      </c>
-      <c r="C165">
-        <v>129</v>
-      </c>
-      <c r="D165">
-        <v>129</v>
-      </c>
-      <c r="G165" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B165" t="s">
+        <v>244</v>
+      </c>
+      <c r="C165" t="s">
+        <v>244</v>
+      </c>
+      <c r="D165" t="s">
+        <v>244</v>
+      </c>
+      <c r="F165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>68</v>
-      </c>
-      <c r="B166">
-        <v>130</v>
-      </c>
-      <c r="C166">
-        <v>130</v>
-      </c>
-      <c r="D166">
-        <v>130</v>
-      </c>
-      <c r="G166" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B166" t="s">
+        <v>245</v>
+      </c>
+      <c r="C166" t="s">
+        <v>245</v>
+      </c>
+      <c r="D166" t="s">
+        <v>245</v>
+      </c>
+      <c r="F166" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>68</v>
-      </c>
-      <c r="B167">
-        <v>131</v>
-      </c>
-      <c r="C167">
-        <v>131</v>
-      </c>
-      <c r="D167">
-        <v>131</v>
-      </c>
-      <c r="G167" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B167" t="s">
+        <v>246</v>
+      </c>
+      <c r="C167" t="s">
+        <v>246</v>
+      </c>
+      <c r="D167" t="s">
+        <v>246</v>
+      </c>
+      <c r="F167" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>68</v>
-      </c>
-      <c r="B168">
-        <v>132</v>
-      </c>
-      <c r="C168">
-        <v>132</v>
-      </c>
-      <c r="D168">
-        <v>132</v>
-      </c>
-      <c r="G168" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B168" t="s">
+        <v>247</v>
+      </c>
+      <c r="C168" t="s">
+        <v>247</v>
+      </c>
+      <c r="D168" t="s">
+        <v>247</v>
+      </c>
+      <c r="F168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>68</v>
-      </c>
-      <c r="B169">
-        <v>133</v>
-      </c>
-      <c r="C169">
-        <v>133</v>
-      </c>
-      <c r="D169">
-        <v>133</v>
-      </c>
-      <c r="G169" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B169" t="s">
+        <v>248</v>
+      </c>
+      <c r="C169" t="s">
+        <v>248</v>
+      </c>
+      <c r="D169" t="s">
+        <v>248</v>
+      </c>
+      <c r="F169" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>68</v>
-      </c>
-      <c r="B170">
-        <v>134</v>
-      </c>
-      <c r="C170">
-        <v>134</v>
-      </c>
-      <c r="D170">
-        <v>134</v>
-      </c>
-      <c r="G170" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B170" t="s">
+        <v>249</v>
+      </c>
+      <c r="C170" t="s">
+        <v>249</v>
+      </c>
+      <c r="D170" t="s">
+        <v>249</v>
+      </c>
+      <c r="F170" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>68</v>
-      </c>
-      <c r="B171">
-        <v>135</v>
-      </c>
-      <c r="C171">
-        <v>135</v>
-      </c>
-      <c r="D171">
-        <v>135</v>
-      </c>
-      <c r="G171" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B171" t="s">
+        <v>250</v>
+      </c>
+      <c r="C171" t="s">
+        <v>250</v>
+      </c>
+      <c r="D171" t="s">
+        <v>250</v>
+      </c>
+      <c r="F171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>68</v>
-      </c>
-      <c r="B172">
-        <v>136</v>
-      </c>
-      <c r="C172">
-        <v>136</v>
-      </c>
-      <c r="D172">
-        <v>136</v>
-      </c>
-      <c r="G172" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B172" t="s">
+        <v>251</v>
+      </c>
+      <c r="C172" t="s">
+        <v>251</v>
+      </c>
+      <c r="D172" t="s">
+        <v>251</v>
+      </c>
+      <c r="F172" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>68</v>
-      </c>
-      <c r="B173">
-        <v>137</v>
-      </c>
-      <c r="C173">
-        <v>137</v>
-      </c>
-      <c r="D173">
-        <v>137</v>
-      </c>
-      <c r="G173" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B173" t="s">
+        <v>252</v>
+      </c>
+      <c r="C173" t="s">
+        <v>252</v>
+      </c>
+      <c r="D173" t="s">
+        <v>252</v>
+      </c>
+      <c r="F173" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>68</v>
-      </c>
-      <c r="B174">
-        <v>138</v>
-      </c>
-      <c r="C174">
-        <v>138</v>
-      </c>
-      <c r="D174">
-        <v>138</v>
-      </c>
-      <c r="G174" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B174" t="s">
+        <v>253</v>
+      </c>
+      <c r="C174" t="s">
+        <v>253</v>
+      </c>
+      <c r="D174" t="s">
+        <v>253</v>
+      </c>
+      <c r="F174" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>68</v>
-      </c>
-      <c r="B175">
-        <v>139</v>
-      </c>
-      <c r="C175">
-        <v>139</v>
-      </c>
-      <c r="D175">
-        <v>139</v>
-      </c>
-      <c r="G175" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="B175" t="s">
+        <v>254</v>
+      </c>
+      <c r="C175" t="s">
+        <v>254</v>
+      </c>
+      <c r="D175" t="s">
+        <v>254</v>
+      </c>
+      <c r="F175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>68</v>
-      </c>
-      <c r="B176">
-        <v>140</v>
-      </c>
-      <c r="C176">
-        <v>140</v>
-      </c>
-      <c r="D176">
-        <v>140</v>
-      </c>
-      <c r="G176" t="s">
-        <v>126</v>
+        <v>61</v>
+      </c>
+      <c r="B176" t="s">
+        <v>255</v>
+      </c>
+      <c r="C176" t="s">
+        <v>255</v>
+      </c>
+      <c r="D176" t="s">
+        <v>255</v>
+      </c>
+      <c r="F176" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>68</v>
-      </c>
-      <c r="B177">
-        <v>141</v>
-      </c>
-      <c r="C177">
-        <v>141</v>
-      </c>
-      <c r="D177">
-        <v>141</v>
-      </c>
-      <c r="G177" t="s">
-        <v>127</v>
+        <v>61</v>
+      </c>
+      <c r="B177" t="s">
+        <v>256</v>
+      </c>
+      <c r="C177" t="s">
+        <v>256</v>
+      </c>
+      <c r="D177" t="s">
+        <v>256</v>
+      </c>
+      <c r="F177" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>68</v>
-      </c>
-      <c r="B178">
-        <v>142</v>
-      </c>
-      <c r="C178">
-        <v>142</v>
-      </c>
-      <c r="D178">
-        <v>142</v>
-      </c>
-      <c r="G178" t="s">
-        <v>128</v>
+        <v>61</v>
+      </c>
+      <c r="B178" t="s">
+        <v>257</v>
+      </c>
+      <c r="C178" t="s">
+        <v>257</v>
+      </c>
+      <c r="D178" t="s">
+        <v>257</v>
+      </c>
+      <c r="F178" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>68</v>
-      </c>
-      <c r="B179">
-        <v>143</v>
-      </c>
-      <c r="C179">
-        <v>143</v>
-      </c>
-      <c r="D179">
-        <v>143</v>
-      </c>
-      <c r="G179" t="s">
-        <v>129</v>
+        <v>61</v>
+      </c>
+      <c r="B179" t="s">
+        <v>258</v>
+      </c>
+      <c r="C179" t="s">
+        <v>258</v>
+      </c>
+      <c r="D179" t="s">
+        <v>258</v>
+      </c>
+      <c r="F179" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>68</v>
-      </c>
-      <c r="B180">
-        <v>144</v>
-      </c>
-      <c r="C180">
-        <v>144</v>
-      </c>
-      <c r="D180">
-        <v>144</v>
-      </c>
-      <c r="G180" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="B180" t="s">
+        <v>259</v>
+      </c>
+      <c r="C180" t="s">
+        <v>259</v>
+      </c>
+      <c r="D180" t="s">
+        <v>259</v>
+      </c>
+      <c r="F180" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>68</v>
-      </c>
-      <c r="B181">
-        <v>145</v>
-      </c>
-      <c r="C181">
-        <v>145</v>
-      </c>
-      <c r="D181">
-        <v>145</v>
-      </c>
-      <c r="G181" t="s">
-        <v>131</v>
+        <v>61</v>
+      </c>
+      <c r="B181" t="s">
+        <v>260</v>
+      </c>
+      <c r="C181" t="s">
+        <v>260</v>
+      </c>
+      <c r="D181" t="s">
+        <v>260</v>
+      </c>
+      <c r="F181" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>68</v>
-      </c>
-      <c r="B182">
-        <v>146</v>
-      </c>
-      <c r="C182">
-        <v>146</v>
-      </c>
-      <c r="D182">
-        <v>146</v>
-      </c>
-      <c r="G182" t="s">
-        <v>132</v>
+        <v>61</v>
+      </c>
+      <c r="B182" t="s">
+        <v>261</v>
+      </c>
+      <c r="C182" t="s">
+        <v>261</v>
+      </c>
+      <c r="D182" t="s">
+        <v>261</v>
+      </c>
+      <c r="F182" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>68</v>
-      </c>
-      <c r="B183">
-        <v>147</v>
-      </c>
-      <c r="C183">
-        <v>147</v>
-      </c>
-      <c r="D183">
-        <v>147</v>
-      </c>
-      <c r="G183" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" t="s">
-        <v>68</v>
-      </c>
-      <c r="B184">
-        <v>148</v>
-      </c>
-      <c r="C184">
-        <v>148</v>
-      </c>
-      <c r="D184">
-        <v>148</v>
-      </c>
-      <c r="G184" t="s">
-        <v>134</v>
+        <v>61</v>
+      </c>
+      <c r="B183" t="s">
+        <v>262</v>
+      </c>
+      <c r="C183" t="s">
+        <v>262</v>
+      </c>
+      <c r="D183" t="s">
+        <v>262</v>
+      </c>
+      <c r="F183" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,16 +4783,16 @@
         <v>68</v>
       </c>
       <c r="B185">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="C185">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="D185">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="G185" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4664,16 +4800,16 @@
         <v>68</v>
       </c>
       <c r="B186">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C186">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="D186">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="G186" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4681,16 +4817,16 @@
         <v>68</v>
       </c>
       <c r="B187">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="C187">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="D187">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="G187" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4698,16 +4834,16 @@
         <v>68</v>
       </c>
       <c r="B188">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="C188">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="D188">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="G188" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4715,16 +4851,16 @@
         <v>68</v>
       </c>
       <c r="B189">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="C189">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="D189">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="G189" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4732,16 +4868,16 @@
         <v>68</v>
       </c>
       <c r="B190">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C190">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="D190">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="G190" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4749,16 +4885,16 @@
         <v>68</v>
       </c>
       <c r="B191">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="C191">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D191">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="G191" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4766,16 +4902,16 @@
         <v>68</v>
       </c>
       <c r="B192">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C192">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D192">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="G192" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4783,16 +4919,16 @@
         <v>68</v>
       </c>
       <c r="B193">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C193">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D193">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="G193" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4800,16 +4936,16 @@
         <v>68</v>
       </c>
       <c r="B194">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="C194">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="D194">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="G194" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4817,16 +4953,16 @@
         <v>68</v>
       </c>
       <c r="B195">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="C195">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="D195">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="G195" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4834,16 +4970,16 @@
         <v>68</v>
       </c>
       <c r="B196">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C196">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="D196">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="G196" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4851,16 +4987,16 @@
         <v>68</v>
       </c>
       <c r="B197">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="C197">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D197">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="G197" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4868,16 +5004,16 @@
         <v>68</v>
       </c>
       <c r="B198">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="C198">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="D198">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="G198" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4885,16 +5021,16 @@
         <v>68</v>
       </c>
       <c r="B199">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="C199">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="D199">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G199" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4902,16 +5038,16 @@
         <v>68</v>
       </c>
       <c r="B200">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="C200">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D200">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="G200" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4919,16 +5055,16 @@
         <v>68</v>
       </c>
       <c r="B201">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C201">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="D201">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="G201" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -4936,16 +5072,16 @@
         <v>68</v>
       </c>
       <c r="B202">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="C202">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="D202">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="G202" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -4953,16 +5089,16 @@
         <v>68</v>
       </c>
       <c r="B203">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C203">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="D203">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="G203" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4970,16 +5106,16 @@
         <v>68</v>
       </c>
       <c r="B204">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C204">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D204">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="G204" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -4987,16 +5123,16 @@
         <v>68</v>
       </c>
       <c r="B205">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C205">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="D205">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G205" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5004,16 +5140,16 @@
         <v>68</v>
       </c>
       <c r="B206">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="C206">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="D206">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="G206" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5021,16 +5157,16 @@
         <v>68</v>
       </c>
       <c r="B207">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C207">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D207">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="G207" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5038,16 +5174,16 @@
         <v>68</v>
       </c>
       <c r="B208">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C208">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="D208">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="G208" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5055,16 +5191,16 @@
         <v>68</v>
       </c>
       <c r="B209">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="C209">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="D209">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="G209" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5072,16 +5208,16 @@
         <v>68</v>
       </c>
       <c r="B210">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C210">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="D210">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="G210" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5089,16 +5225,16 @@
         <v>68</v>
       </c>
       <c r="B211">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="C211">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="D211">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="G211" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5106,16 +5242,16 @@
         <v>68</v>
       </c>
       <c r="B212">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C212">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="D212">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="G212" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5123,16 +5259,16 @@
         <v>68</v>
       </c>
       <c r="B213">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="C213">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="D213">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="G213" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5140,16 +5276,16 @@
         <v>68</v>
       </c>
       <c r="B214">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C214">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="D214">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="G214" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5157,16 +5293,16 @@
         <v>68</v>
       </c>
       <c r="B215">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="C215">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="D215">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G215" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5174,16 +5310,16 @@
         <v>68</v>
       </c>
       <c r="B216">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C216">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="D216">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="G216" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5191,16 +5327,16 @@
         <v>68</v>
       </c>
       <c r="B217">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="C217">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="D217">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="G217" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5208,16 +5344,16 @@
         <v>68</v>
       </c>
       <c r="B218">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="C218">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="D218">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="G218" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5225,16 +5361,16 @@
         <v>68</v>
       </c>
       <c r="B219">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C219">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D219">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="G219" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5242,16 +5378,16 @@
         <v>68</v>
       </c>
       <c r="B220">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C220">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="D220">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="G220" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5259,16 +5395,16 @@
         <v>68</v>
       </c>
       <c r="B221">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="C221">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="D221">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="G221" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5276,16 +5412,16 @@
         <v>68</v>
       </c>
       <c r="B222">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="C222">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="D222">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="G222" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5293,16 +5429,16 @@
         <v>68</v>
       </c>
       <c r="B223">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="C223">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="D223">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="G223" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5310,16 +5446,16 @@
         <v>68</v>
       </c>
       <c r="B224">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="C224">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="D224">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="G224" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5327,16 +5463,16 @@
         <v>68</v>
       </c>
       <c r="B225">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C225">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="D225">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="G225" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5344,16 +5480,16 @@
         <v>68</v>
       </c>
       <c r="B226">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="C226">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="D226">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="G226" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5361,16 +5497,16 @@
         <v>68</v>
       </c>
       <c r="B227">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="C227">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="D227">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="G227" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5378,16 +5514,16 @@
         <v>68</v>
       </c>
       <c r="B228">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="C228">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="D228">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="G228" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5395,16 +5531,16 @@
         <v>68</v>
       </c>
       <c r="B229">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C229">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="D229">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="G229" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5412,16 +5548,16 @@
         <v>68</v>
       </c>
       <c r="B230">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="C230">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="D230">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="G230" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5429,16 +5565,16 @@
         <v>68</v>
       </c>
       <c r="B231">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="C231">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="D231">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="G231" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5446,16 +5582,16 @@
         <v>68</v>
       </c>
       <c r="B232">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="C232">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D232">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="G232" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5463,16 +5599,16 @@
         <v>68</v>
       </c>
       <c r="B233">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C233">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="D233">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="G233" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5480,16 +5616,16 @@
         <v>68</v>
       </c>
       <c r="B234">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C234">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="D234">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="G234" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5497,16 +5633,16 @@
         <v>68</v>
       </c>
       <c r="B235">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="C235">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="D235">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="G235" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5514,16 +5650,16 @@
         <v>68</v>
       </c>
       <c r="B236">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="C236">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="D236">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="G236" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5531,16 +5667,16 @@
         <v>68</v>
       </c>
       <c r="B237">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="C237">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D237">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="G237" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5548,16 +5684,16 @@
         <v>68</v>
       </c>
       <c r="B238">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C238">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="D238">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="G238" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5565,16 +5701,16 @@
         <v>68</v>
       </c>
       <c r="B239">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="C239">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="D239">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="G239" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5582,16 +5718,16 @@
         <v>68</v>
       </c>
       <c r="B240">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="C240">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="D240">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="G240" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5599,16 +5735,16 @@
         <v>68</v>
       </c>
       <c r="B241">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="C241">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="D241">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="G241" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5616,16 +5752,16 @@
         <v>68</v>
       </c>
       <c r="B242">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="C242">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="D242">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="G242" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5633,16 +5769,16 @@
         <v>68</v>
       </c>
       <c r="B243">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="C243">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="D243">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="G243" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5650,16 +5786,16 @@
         <v>68</v>
       </c>
       <c r="B244">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="C244">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="D244">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="G244" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -5667,16 +5803,16 @@
         <v>68</v>
       </c>
       <c r="B245">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="C245">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="D245">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G245" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -5684,16 +5820,16 @@
         <v>68</v>
       </c>
       <c r="B246">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C246">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="D246">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="G246" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5701,16 +5837,16 @@
         <v>68</v>
       </c>
       <c r="B247">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="C247">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="D247">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="G247" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -5718,16 +5854,16 @@
         <v>68</v>
       </c>
       <c r="B248">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="C248">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="D248">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G248" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -5735,16 +5871,16 @@
         <v>68</v>
       </c>
       <c r="B249">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="C249">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="D249">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="G249" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5752,16 +5888,16 @@
         <v>68</v>
       </c>
       <c r="B250">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C250">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="D250">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G250" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -5769,16 +5905,16 @@
         <v>68</v>
       </c>
       <c r="B251">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="C251">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="D251">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="G251" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -5786,16 +5922,16 @@
         <v>68</v>
       </c>
       <c r="B252">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C252">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="D252">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="G252" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5803,16 +5939,16 @@
         <v>68</v>
       </c>
       <c r="B253">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C253">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="D253">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="G253" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -5820,16 +5956,16 @@
         <v>68</v>
       </c>
       <c r="B254">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="C254">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="D254">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="G254" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -5837,16 +5973,16 @@
         <v>68</v>
       </c>
       <c r="B255">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C255">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="D255">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="G255" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5854,23 +5990,1621 @@
         <v>68</v>
       </c>
       <c r="B256">
+        <v>172</v>
+      </c>
+      <c r="C256">
+        <v>172</v>
+      </c>
+      <c r="D256">
+        <v>172</v>
+      </c>
+      <c r="G256" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>68</v>
+      </c>
+      <c r="B257">
+        <v>173</v>
+      </c>
+      <c r="C257">
+        <v>173</v>
+      </c>
+      <c r="D257">
+        <v>173</v>
+      </c>
+      <c r="G257" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>68</v>
+      </c>
+      <c r="B258">
+        <v>174</v>
+      </c>
+      <c r="C258">
+        <v>174</v>
+      </c>
+      <c r="D258">
+        <v>174</v>
+      </c>
+      <c r="G258" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>68</v>
+      </c>
+      <c r="B259">
+        <v>175</v>
+      </c>
+      <c r="C259">
+        <v>175</v>
+      </c>
+      <c r="D259">
+        <v>175</v>
+      </c>
+      <c r="G259" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>68</v>
+      </c>
+      <c r="B260">
+        <v>176</v>
+      </c>
+      <c r="C260">
+        <v>176</v>
+      </c>
+      <c r="D260">
+        <v>176</v>
+      </c>
+      <c r="G260" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>68</v>
+      </c>
+      <c r="B261">
+        <v>177</v>
+      </c>
+      <c r="C261">
+        <v>177</v>
+      </c>
+      <c r="D261">
+        <v>177</v>
+      </c>
+      <c r="G261" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>68</v>
+      </c>
+      <c r="B262">
+        <v>178</v>
+      </c>
+      <c r="C262">
+        <v>178</v>
+      </c>
+      <c r="D262">
+        <v>178</v>
+      </c>
+      <c r="G262" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>68</v>
+      </c>
+      <c r="B263">
+        <v>179</v>
+      </c>
+      <c r="C263">
+        <v>179</v>
+      </c>
+      <c r="D263">
+        <v>179</v>
+      </c>
+      <c r="G263" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>68</v>
+      </c>
+      <c r="B264">
+        <v>180</v>
+      </c>
+      <c r="C264">
+        <v>180</v>
+      </c>
+      <c r="D264">
+        <v>180</v>
+      </c>
+      <c r="G264" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>68</v>
+      </c>
+      <c r="B265">
+        <v>181</v>
+      </c>
+      <c r="C265">
+        <v>181</v>
+      </c>
+      <c r="D265">
+        <v>181</v>
+      </c>
+      <c r="G265" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>68</v>
+      </c>
+      <c r="B266">
+        <v>182</v>
+      </c>
+      <c r="C266">
+        <v>182</v>
+      </c>
+      <c r="D266">
+        <v>182</v>
+      </c>
+      <c r="G266" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>68</v>
+      </c>
+      <c r="B267">
+        <v>183</v>
+      </c>
+      <c r="C267">
+        <v>183</v>
+      </c>
+      <c r="D267">
+        <v>183</v>
+      </c>
+      <c r="G267" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>68</v>
+      </c>
+      <c r="B268">
+        <v>184</v>
+      </c>
+      <c r="C268">
+        <v>184</v>
+      </c>
+      <c r="D268">
+        <v>184</v>
+      </c>
+      <c r="G268" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>68</v>
+      </c>
+      <c r="B269">
+        <v>185</v>
+      </c>
+      <c r="C269">
+        <v>185</v>
+      </c>
+      <c r="D269">
+        <v>185</v>
+      </c>
+      <c r="G269" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>68</v>
+      </c>
+      <c r="B270">
+        <v>186</v>
+      </c>
+      <c r="C270">
+        <v>186</v>
+      </c>
+      <c r="D270">
+        <v>186</v>
+      </c>
+      <c r="G270" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>68</v>
+      </c>
+      <c r="B271">
+        <v>187</v>
+      </c>
+      <c r="C271">
+        <v>187</v>
+      </c>
+      <c r="D271">
+        <v>187</v>
+      </c>
+      <c r="G271" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>68</v>
+      </c>
+      <c r="B272">
+        <v>188</v>
+      </c>
+      <c r="C272">
+        <v>188</v>
+      </c>
+      <c r="D272">
+        <v>188</v>
+      </c>
+      <c r="G272" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>68</v>
+      </c>
+      <c r="B273">
+        <v>189</v>
+      </c>
+      <c r="C273">
+        <v>189</v>
+      </c>
+      <c r="D273">
+        <v>189</v>
+      </c>
+      <c r="G273" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>68</v>
+      </c>
+      <c r="B274">
+        <v>190</v>
+      </c>
+      <c r="C274">
+        <v>190</v>
+      </c>
+      <c r="D274">
+        <v>190</v>
+      </c>
+      <c r="G274" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>68</v>
+      </c>
+      <c r="B275">
+        <v>191</v>
+      </c>
+      <c r="C275">
+        <v>191</v>
+      </c>
+      <c r="D275">
+        <v>191</v>
+      </c>
+      <c r="G275" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>68</v>
+      </c>
+      <c r="B276">
+        <v>192</v>
+      </c>
+      <c r="C276">
+        <v>192</v>
+      </c>
+      <c r="D276">
+        <v>192</v>
+      </c>
+      <c r="G276" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>68</v>
+      </c>
+      <c r="B277">
+        <v>193</v>
+      </c>
+      <c r="C277">
+        <v>193</v>
+      </c>
+      <c r="D277">
+        <v>193</v>
+      </c>
+      <c r="G277" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>68</v>
+      </c>
+      <c r="B278">
+        <v>194</v>
+      </c>
+      <c r="C278">
+        <v>194</v>
+      </c>
+      <c r="D278">
+        <v>194</v>
+      </c>
+      <c r="G278" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>68</v>
+      </c>
+      <c r="B279">
+        <v>195</v>
+      </c>
+      <c r="C279">
+        <v>195</v>
+      </c>
+      <c r="D279">
+        <v>195</v>
+      </c>
+      <c r="G279" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>68</v>
+      </c>
+      <c r="B280">
+        <v>196</v>
+      </c>
+      <c r="C280">
+        <v>196</v>
+      </c>
+      <c r="D280">
+        <v>196</v>
+      </c>
+      <c r="G280" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>68</v>
+      </c>
+      <c r="B281">
+        <v>197</v>
+      </c>
+      <c r="C281">
+        <v>197</v>
+      </c>
+      <c r="D281">
+        <v>197</v>
+      </c>
+      <c r="G281" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>68</v>
+      </c>
+      <c r="B282">
+        <v>198</v>
+      </c>
+      <c r="C282">
+        <v>198</v>
+      </c>
+      <c r="D282">
+        <v>198</v>
+      </c>
+      <c r="G282" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>68</v>
+      </c>
+      <c r="B283">
+        <v>199</v>
+      </c>
+      <c r="C283">
+        <v>199</v>
+      </c>
+      <c r="D283">
+        <v>199</v>
+      </c>
+      <c r="G283" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>68</v>
+      </c>
+      <c r="B284">
+        <v>200</v>
+      </c>
+      <c r="C284">
+        <v>200</v>
+      </c>
+      <c r="D284">
+        <v>200</v>
+      </c>
+      <c r="G284" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>68</v>
+      </c>
+      <c r="B285">
+        <v>201</v>
+      </c>
+      <c r="C285">
+        <v>201</v>
+      </c>
+      <c r="D285">
+        <v>201</v>
+      </c>
+      <c r="G285" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>68</v>
+      </c>
+      <c r="B286">
+        <v>202</v>
+      </c>
+      <c r="C286">
+        <v>202</v>
+      </c>
+      <c r="D286">
+        <v>202</v>
+      </c>
+      <c r="G286" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>68</v>
+      </c>
+      <c r="B287">
+        <v>203</v>
+      </c>
+      <c r="C287">
+        <v>203</v>
+      </c>
+      <c r="D287">
+        <v>203</v>
+      </c>
+      <c r="G287" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>68</v>
+      </c>
+      <c r="B288">
+        <v>204</v>
+      </c>
+      <c r="C288">
+        <v>204</v>
+      </c>
+      <c r="D288">
+        <v>204</v>
+      </c>
+      <c r="G288" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>68</v>
+      </c>
+      <c r="B289">
+        <v>205</v>
+      </c>
+      <c r="C289">
+        <v>205</v>
+      </c>
+      <c r="D289">
+        <v>205</v>
+      </c>
+      <c r="G289" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>68</v>
+      </c>
+      <c r="B290">
+        <v>206</v>
+      </c>
+      <c r="C290">
+        <v>206</v>
+      </c>
+      <c r="D290">
+        <v>206</v>
+      </c>
+      <c r="G290" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>68</v>
+      </c>
+      <c r="B291">
+        <v>207</v>
+      </c>
+      <c r="C291">
+        <v>207</v>
+      </c>
+      <c r="D291">
+        <v>207</v>
+      </c>
+      <c r="G291" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>68</v>
+      </c>
+      <c r="B292">
+        <v>208</v>
+      </c>
+      <c r="C292">
+        <v>208</v>
+      </c>
+      <c r="D292">
+        <v>208</v>
+      </c>
+      <c r="G292" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>68</v>
+      </c>
+      <c r="B293">
+        <v>209</v>
+      </c>
+      <c r="C293">
+        <v>209</v>
+      </c>
+      <c r="D293">
+        <v>209</v>
+      </c>
+      <c r="G293" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>68</v>
+      </c>
+      <c r="B294">
+        <v>210</v>
+      </c>
+      <c r="C294">
+        <v>210</v>
+      </c>
+      <c r="D294">
+        <v>210</v>
+      </c>
+      <c r="G294" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>68</v>
+      </c>
+      <c r="B295">
+        <v>211</v>
+      </c>
+      <c r="C295">
+        <v>211</v>
+      </c>
+      <c r="D295">
+        <v>211</v>
+      </c>
+      <c r="G295" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>68</v>
+      </c>
+      <c r="B296">
+        <v>212</v>
+      </c>
+      <c r="C296">
+        <v>212</v>
+      </c>
+      <c r="D296">
+        <v>212</v>
+      </c>
+      <c r="G296" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>68</v>
+      </c>
+      <c r="B297">
+        <v>213</v>
+      </c>
+      <c r="C297">
+        <v>213</v>
+      </c>
+      <c r="D297">
+        <v>213</v>
+      </c>
+      <c r="G297" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>68</v>
+      </c>
+      <c r="B298">
+        <v>214</v>
+      </c>
+      <c r="C298">
+        <v>214</v>
+      </c>
+      <c r="D298">
+        <v>214</v>
+      </c>
+      <c r="G298" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>68</v>
+      </c>
+      <c r="B299">
+        <v>215</v>
+      </c>
+      <c r="C299">
+        <v>215</v>
+      </c>
+      <c r="D299">
+        <v>215</v>
+      </c>
+      <c r="G299" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>68</v>
+      </c>
+      <c r="B300">
+        <v>216</v>
+      </c>
+      <c r="C300">
+        <v>216</v>
+      </c>
+      <c r="D300">
+        <v>216</v>
+      </c>
+      <c r="G300" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>68</v>
+      </c>
+      <c r="B301">
+        <v>217</v>
+      </c>
+      <c r="C301">
+        <v>217</v>
+      </c>
+      <c r="D301">
+        <v>217</v>
+      </c>
+      <c r="G301" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>68</v>
+      </c>
+      <c r="B302">
+        <v>218</v>
+      </c>
+      <c r="C302">
+        <v>218</v>
+      </c>
+      <c r="D302">
+        <v>218</v>
+      </c>
+      <c r="G302" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>68</v>
+      </c>
+      <c r="B303">
+        <v>219</v>
+      </c>
+      <c r="C303">
+        <v>219</v>
+      </c>
+      <c r="D303">
+        <v>219</v>
+      </c>
+      <c r="G303" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>68</v>
+      </c>
+      <c r="B304">
         <v>220</v>
       </c>
-      <c r="C256">
+      <c r="C304">
         <v>220</v>
       </c>
-      <c r="D256">
+      <c r="D304">
         <v>220</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G304" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>68</v>
+      </c>
+      <c r="B305">
+        <v>221</v>
+      </c>
+      <c r="C305">
+        <v>221</v>
+      </c>
+      <c r="D305">
+        <v>221</v>
+      </c>
+      <c r="G305" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>68</v>
+      </c>
+      <c r="B306">
+        <v>222</v>
+      </c>
+      <c r="C306">
+        <v>222</v>
+      </c>
+      <c r="D306">
+        <v>222</v>
+      </c>
+      <c r="G306" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>68</v>
+      </c>
+      <c r="B307">
+        <v>223</v>
+      </c>
+      <c r="C307">
+        <v>223</v>
+      </c>
+      <c r="D307">
+        <v>223</v>
+      </c>
+      <c r="G307" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>68</v>
+      </c>
+      <c r="B308">
+        <v>224</v>
+      </c>
+      <c r="C308">
+        <v>224</v>
+      </c>
+      <c r="D308">
+        <v>224</v>
+      </c>
+      <c r="G308" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>68</v>
+      </c>
+      <c r="B309">
+        <v>225</v>
+      </c>
+      <c r="C309">
+        <v>225</v>
+      </c>
+      <c r="D309">
+        <v>225</v>
+      </c>
+      <c r="G309" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>68</v>
+      </c>
+      <c r="B310">
+        <v>226</v>
+      </c>
+      <c r="C310">
+        <v>226</v>
+      </c>
+      <c r="D310">
+        <v>226</v>
+      </c>
+      <c r="G310" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>68</v>
+      </c>
+      <c r="B311">
+        <v>227</v>
+      </c>
+      <c r="C311">
+        <v>227</v>
+      </c>
+      <c r="D311">
+        <v>227</v>
+      </c>
+      <c r="G311" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>68</v>
+      </c>
+      <c r="B312">
+        <v>228</v>
+      </c>
+      <c r="C312">
+        <v>228</v>
+      </c>
+      <c r="D312">
+        <v>228</v>
+      </c>
+      <c r="G312" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>68</v>
+      </c>
+      <c r="B313">
+        <v>229</v>
+      </c>
+      <c r="C313">
+        <v>229</v>
+      </c>
+      <c r="D313">
+        <v>229</v>
+      </c>
+      <c r="G313" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>68</v>
+      </c>
+      <c r="B314">
+        <v>230</v>
+      </c>
+      <c r="C314">
+        <v>230</v>
+      </c>
+      <c r="D314">
+        <v>230</v>
+      </c>
+      <c r="G314" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>68</v>
+      </c>
+      <c r="B315">
+        <v>231</v>
+      </c>
+      <c r="C315">
+        <v>231</v>
+      </c>
+      <c r="D315">
+        <v>231</v>
+      </c>
+      <c r="G315" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>68</v>
+      </c>
+      <c r="B316">
+        <v>232</v>
+      </c>
+      <c r="C316">
+        <v>232</v>
+      </c>
+      <c r="D316">
+        <v>232</v>
+      </c>
+      <c r="G316" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>68</v>
+      </c>
+      <c r="B317">
+        <v>233</v>
+      </c>
+      <c r="C317">
+        <v>233</v>
+      </c>
+      <c r="D317">
+        <v>233</v>
+      </c>
+      <c r="G317" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>68</v>
+      </c>
+      <c r="B318">
+        <v>234</v>
+      </c>
+      <c r="C318">
+        <v>234</v>
+      </c>
+      <c r="D318">
+        <v>234</v>
+      </c>
+      <c r="G318" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>68</v>
+      </c>
+      <c r="B319">
+        <v>235</v>
+      </c>
+      <c r="C319">
+        <v>235</v>
+      </c>
+      <c r="D319">
+        <v>235</v>
+      </c>
+      <c r="G319" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>68</v>
+      </c>
+      <c r="B320">
+        <v>236</v>
+      </c>
+      <c r="C320">
+        <v>236</v>
+      </c>
+      <c r="D320">
+        <v>236</v>
+      </c>
+      <c r="G320" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>68</v>
+      </c>
+      <c r="B321">
+        <v>237</v>
+      </c>
+      <c r="C321">
+        <v>237</v>
+      </c>
+      <c r="D321">
+        <v>237</v>
+      </c>
+      <c r="G321" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>68</v>
+      </c>
+      <c r="B322">
+        <v>238</v>
+      </c>
+      <c r="C322">
+        <v>238</v>
+      </c>
+      <c r="D322">
+        <v>238</v>
+      </c>
+      <c r="G322" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>68</v>
+      </c>
+      <c r="B323">
+        <v>239</v>
+      </c>
+      <c r="C323">
+        <v>239</v>
+      </c>
+      <c r="D323">
+        <v>239</v>
+      </c>
+      <c r="G323" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>68</v>
+      </c>
+      <c r="B324">
+        <v>240</v>
+      </c>
+      <c r="C324">
+        <v>240</v>
+      </c>
+      <c r="D324">
+        <v>240</v>
+      </c>
+      <c r="G324" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>68</v>
+      </c>
+      <c r="B325">
+        <v>241</v>
+      </c>
+      <c r="C325">
+        <v>241</v>
+      </c>
+      <c r="D325">
+        <v>241</v>
+      </c>
+      <c r="G325" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>68</v>
+      </c>
+      <c r="B326">
+        <v>242</v>
+      </c>
+      <c r="C326">
+        <v>242</v>
+      </c>
+      <c r="D326">
+        <v>242</v>
+      </c>
+      <c r="G326" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>68</v>
+      </c>
+      <c r="B327">
+        <v>243</v>
+      </c>
+      <c r="C327">
+        <v>243</v>
+      </c>
+      <c r="D327">
+        <v>243</v>
+      </c>
+      <c r="G327" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>68</v>
+      </c>
+      <c r="B328">
+        <v>244</v>
+      </c>
+      <c r="C328">
+        <v>244</v>
+      </c>
+      <c r="D328">
+        <v>244</v>
+      </c>
+      <c r="G328" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>68</v>
+      </c>
+      <c r="B329">
+        <v>245</v>
+      </c>
+      <c r="C329">
+        <v>245</v>
+      </c>
+      <c r="D329">
+        <v>245</v>
+      </c>
+      <c r="G329" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>68</v>
+      </c>
+      <c r="B330">
+        <v>246</v>
+      </c>
+      <c r="C330">
+        <v>246</v>
+      </c>
+      <c r="D330">
+        <v>246</v>
+      </c>
+      <c r="G330" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>68</v>
+      </c>
+      <c r="B331">
+        <v>247</v>
+      </c>
+      <c r="C331">
+        <v>247</v>
+      </c>
+      <c r="D331">
+        <v>247</v>
+      </c>
+      <c r="G331" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>68</v>
+      </c>
+      <c r="B332">
+        <v>248</v>
+      </c>
+      <c r="C332">
+        <v>248</v>
+      </c>
+      <c r="D332">
+        <v>248</v>
+      </c>
+      <c r="G332" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>68</v>
+      </c>
+      <c r="B333">
+        <v>249</v>
+      </c>
+      <c r="C333">
+        <v>249</v>
+      </c>
+      <c r="D333">
+        <v>249</v>
+      </c>
+      <c r="G333" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>68</v>
+      </c>
+      <c r="B334">
+        <v>250</v>
+      </c>
+      <c r="C334">
+        <v>250</v>
+      </c>
+      <c r="D334">
+        <v>250</v>
+      </c>
+      <c r="G334" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>68</v>
+      </c>
+      <c r="B335">
+        <v>251</v>
+      </c>
+      <c r="C335">
+        <v>251</v>
+      </c>
+      <c r="D335">
+        <v>251</v>
+      </c>
+      <c r="G335" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>68</v>
+      </c>
+      <c r="B336">
+        <v>252</v>
+      </c>
+      <c r="C336">
+        <v>252</v>
+      </c>
+      <c r="D336">
+        <v>252</v>
+      </c>
+      <c r="G336" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>68</v>
+      </c>
+      <c r="B337">
+        <v>253</v>
+      </c>
+      <c r="C337">
+        <v>253</v>
+      </c>
+      <c r="D337">
+        <v>253</v>
+      </c>
+      <c r="G337" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>68</v>
+      </c>
+      <c r="B338">
+        <v>254</v>
+      </c>
+      <c r="C338">
+        <v>254</v>
+      </c>
+      <c r="D338">
+        <v>254</v>
+      </c>
+      <c r="G338" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>68</v>
+      </c>
+      <c r="B339">
+        <v>255</v>
+      </c>
+      <c r="C339">
+        <v>255</v>
+      </c>
+      <c r="D339">
+        <v>255</v>
+      </c>
+      <c r="G339" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>68</v>
+      </c>
+      <c r="B340">
+        <v>256</v>
+      </c>
+      <c r="C340">
+        <v>256</v>
+      </c>
+      <c r="D340">
+        <v>256</v>
+      </c>
+      <c r="G340" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" t="s">
+        <v>68</v>
+      </c>
+      <c r="B341">
+        <v>257</v>
+      </c>
+      <c r="C341">
+        <v>257</v>
+      </c>
+      <c r="D341">
+        <v>257</v>
+      </c>
+      <c r="G341" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" t="s">
+        <v>68</v>
+      </c>
+      <c r="B342">
+        <v>258</v>
+      </c>
+      <c r="C342">
+        <v>258</v>
+      </c>
+      <c r="D342">
+        <v>258</v>
+      </c>
+      <c r="G342" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" t="s">
+        <v>68</v>
+      </c>
+      <c r="B343">
+        <v>259</v>
+      </c>
+      <c r="C343">
+        <v>259</v>
+      </c>
+      <c r="D343">
+        <v>259</v>
+      </c>
+      <c r="G343" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" t="s">
+        <v>68</v>
+      </c>
+      <c r="B344">
+        <v>260</v>
+      </c>
+      <c r="C344">
+        <v>260</v>
+      </c>
+      <c r="D344">
+        <v>260</v>
+      </c>
+      <c r="G344" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" t="s">
+        <v>68</v>
+      </c>
+      <c r="B345">
+        <v>261</v>
+      </c>
+      <c r="C345">
+        <v>261</v>
+      </c>
+      <c r="D345">
+        <v>261</v>
+      </c>
+      <c r="G345" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" t="s">
+        <v>68</v>
+      </c>
+      <c r="B346">
+        <v>262</v>
+      </c>
+      <c r="C346">
+        <v>262</v>
+      </c>
+      <c r="D346">
+        <v>262</v>
+      </c>
+      <c r="G346" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" t="s">
+        <v>68</v>
+      </c>
+      <c r="B347">
+        <v>263</v>
+      </c>
+      <c r="C347">
+        <v>263</v>
+      </c>
+      <c r="D347">
+        <v>263</v>
+      </c>
+      <c r="G347" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>68</v>
+      </c>
+      <c r="B348">
+        <v>264</v>
+      </c>
+      <c r="C348">
+        <v>264</v>
+      </c>
+      <c r="D348">
+        <v>264</v>
+      </c>
+      <c r="G348" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" t="s">
+        <v>68</v>
+      </c>
+      <c r="B349">
+        <v>265</v>
+      </c>
+      <c r="C349">
+        <v>265</v>
+      </c>
+      <c r="D349">
+        <v>265</v>
+      </c>
+      <c r="G349" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" t="s">
+        <v>68</v>
+      </c>
+      <c r="B350">
+        <v>266</v>
+      </c>
+      <c r="C350">
+        <v>266</v>
+      </c>
+      <c r="D350">
+        <v>266</v>
+      </c>
+      <c r="G350" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:F136">
-    <sortCondition ref="F17:F136"/>
-    <sortCondition ref="B17:B136"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:F183">
+    <sortCondition ref="F19:F183"/>
+    <sortCondition ref="B19:B183"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5887,31 +7621,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="17"/>
+    <col min="1" max="1" width="44.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>72</v>
       </c>
     </row>
